--- a/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,36</t>
+          <t>-14,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-19,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>-22,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-54,61%</t>
+          <t>-18,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,22%</t>
+          <t>-20,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,04%</t>
+          <t>-24,28%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-22,88%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 0,0</t>
+          <t>-39,02; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 8,42</t>
+          <t>-42,03; 2,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 38,4</t>
+          <t>-46,3; -1,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-81,61; 0,79</t>
+          <t>-42,9; 3,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,32; 64,04</t>
+          <t>-47,99; 16,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 437,83</t>
+          <t>-47,97; 4,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-56,4; -2,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-48,28; 4,59</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>-12,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,19%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 16,62</t>
+          <t>-3,99; 22,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 11,24</t>
+          <t>-0,42; 22,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 5,86</t>
+          <t>-11,74; 12,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 123,25</t>
+          <t>-23,11; -1,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 73,77</t>
+          <t>-5,28; 39,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 44,76</t>
+          <t>-0,99; 39,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 21,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-29,03; -2,73</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 7,77</t>
+          <t>-14,88; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 6,77</t>
+          <t>-13,34; 9,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 13,69</t>
+          <t>-1,87; 19,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 89,38</t>
+          <t>-4,85; 16,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 61,27</t>
+          <t>-18,59; 9,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 132,84</t>
+          <t>-17,06; 13,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 32,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 26,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 6,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 11,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 43,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 39,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 78,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,39</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 8,21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 9,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 8,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-14,59; 1,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 12,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 14,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 13,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,68; 2,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-14,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-19,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-22,03</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,67</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-20,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-24,28%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-28,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-22,88%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.06808784034138</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-16.76859895093913</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-23.25261867152589</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-21.24213584734393</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2108937921036345</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2149820873870073</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.29663343455123</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2602550109997956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-39,02; 8,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-42,03; 2,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-46,3; -1,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-42,9; 3,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-47,99; 16,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-47,97; 4,1</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-56,4; -2,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-48,28; 4,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-39.15580255323935</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-38.06759359648785</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-48.20483901076589</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-45.87274334555388</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4806180146762828</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4429711394852005</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5679863423754062</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5351452360971936</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.846762092190662</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.682010250224582</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.08944977773759</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.1066429716343275</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1553550996581811</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.08229180910422267</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.03556065977811191</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.008891693236152661</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-12,02</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,81%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16,55%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-16,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 22,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 22,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 12,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,11; -1,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 39,84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 39,15</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-16,07; 21,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-29,03; -2,73</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.861043370881482</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.10192535105723</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2937558410421315</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.58242260393805</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1185904171746609</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.187020912430039</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.004408176750576625</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1445178779811523</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-6,22%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.957304294957513</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.702658569887422</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.76899274083279</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.46631776993146</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.03958958102203432</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.01329773502773199</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1619740845565504</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2760288646447659</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,88; 6,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; 9,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 19,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 16,86</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,59; 9,59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; 13,66</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 32,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 26,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.01049626169045</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.99098990662621</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.83930281370591</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1025485443730982</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3946316144217815</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4249030702306275</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2027566327153448</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.003504072293709313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.990849315127253</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.646106347737831</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.186316490241651</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.116100802395986</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.04100296434790178</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.03637564524561489</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1192785927904316</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.102958248464987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.01249030828015</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.64539771621682</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.726285592956543</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.473929464323938</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1773657030809969</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1748881811535609</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.02266907278973022</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.04441434353170021</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.55276239318953</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.863370645430715</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.49948914976303</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.0518073380342</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1737337722751033</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1358463655566022</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3267793987129211</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2942352567276229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,39</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-8,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 8,21</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 9,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 8,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 1,63</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; 12,86</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 14,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; 13,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; 2,38</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.6951442013669262</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.711552672233852</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1207765057444354</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.839653240403441</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.009999533637074016</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03912643828483689</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.001751797229688845</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07981030685787072</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.539079295937112</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.816893001326293</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.873001285583594</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.13193612934768</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1018442002848972</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.06550714118142459</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1064217147421841</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1840999876656245</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.389946488895808</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.17007886964563</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.014293524285986</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.442494802268683</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1487232725170322</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1544484859344048</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1266086682751044</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.03562913499376858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
